--- a/reports/test results.xlsx
+++ b/reports/test results.xlsx
@@ -8,15 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacobakker/machinelearning/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE1B416-CD8F-6E47-8272-4651DC5F2DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2367523-9BE8-3342-80B4-44EC6DA50ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="460" windowWidth="17700" windowHeight="18980" xr2:uid="{DC8BDD5B-B4CB-3A48-A159-B0021C349BA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{DC8BDD5B-B4CB-3A48-A159-B0021C349BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
     <sheet name="Blad8" sheetId="8" r:id="rId2"/>
     <sheet name="Blad9" sheetId="9" r:id="rId3"/>
+    <sheet name="Blad10" sheetId="10" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad10!$A$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad10!$A$33</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad10!$B$31:$J$31</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad10!$B$32:$J$32</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad10!$B$33:$J$33</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad10!$B$34:$J$34</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad10!$A$34</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad10!$B$31:$J$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad10!$B$32:$J$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad10!$B$33:$J$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad10!$B$34:$J$34</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad10!$A$32</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad10!$A$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad10!$A$34</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="65">
   <si>
     <t>blackjack</t>
   </si>
@@ -141,13 +158,104 @@
   <si>
     <t>Python</t>
   </si>
+  <si>
+    <t>Dit is de snelheid van schrijven naar de Mongo database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dus hoeveel megabytes per seconde </t>
+  </si>
+  <si>
+    <t>Je ziet hier dat deze snelheid niet altijd hetzelfde is</t>
+  </si>
+  <si>
+    <t>je berekent dit door de grootte van het dataframe te delen door de totale tijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het is interessant om uit te zoeken wat deze snelheid beinvloed. </t>
+  </si>
+  <si>
+    <t>Dit is de tijd in secondes die het duurt om een dataframe om te zetten in een JSOPN bestand in R</t>
+  </si>
+  <si>
+    <t>De tijd in secondes die het duurt om de JSON bestanden naar Redis te schrijven</t>
+  </si>
+  <si>
+    <t>De tijd die het duurt om de data weer te lezen uit de redis database.</t>
+  </si>
+  <si>
+    <t>Het resultaat is een JSON bestand</t>
+  </si>
+  <si>
+    <t>Dit bestand moet vervolgens weer omgezet worden naar een gewoon data frame</t>
+  </si>
+  <si>
+    <t>De tijd die het duurt om een JSON bestand om te zetten in een normaal data frame</t>
+  </si>
+  <si>
+    <t>Dit is nodig omdat het bestand uit de Redis database geen data frame is</t>
+  </si>
+  <si>
+    <t>De tijd die het duurt om een data frame naar de Mongo DB te schrijven</t>
+  </si>
+  <si>
+    <t>Bij Mongo kun je rechtstreeks een data frame naar Mongo schrijven</t>
+  </si>
+  <si>
+    <t>De tijd die het duurt om data uit Mongo te lezen</t>
+  </si>
+  <si>
+    <t>En in R op te slaan als een data frame</t>
+  </si>
+  <si>
+    <t>Dit is een controle test met Python om te kijken of De getallen kloppen</t>
+  </si>
+  <si>
+    <t>Alle tests worden 3x uitgevoerd om afwijkingen te voorkomen</t>
+  </si>
+  <si>
+    <t>Deze meting is minder van belang</t>
+  </si>
+  <si>
+    <t>Het meet hoe snel een CSV bestand kan worden ingelezen in een data frame</t>
+  </si>
+  <si>
+    <t>Algemene informatie over de datasets</t>
+  </si>
+  <si>
+    <t>Dit is de uitgerekende snelheid van schrijven naar Redis</t>
+  </si>
+  <si>
+    <t>Je kunt ook de leessnelheid uitrekenen.</t>
+  </si>
+  <si>
+    <t>Redis Read speed</t>
+  </si>
+  <si>
+    <t>Mongo Read speed</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Mongo write</t>
+  </si>
+  <si>
+    <t>Mongo read</t>
+  </si>
+  <si>
+    <t>totaal Redis</t>
+  </si>
+  <si>
+    <t>totaal Mongo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -158,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -199,12 +313,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB754FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -217,6 +348,1793 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad2!$B$85:$J$85</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$86:$J$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.417866666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9639666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.209933333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45463333333333344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6998333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5410666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6751999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5C8-3344-8821-12B8CF6A236B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad2!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Mongo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad2!$B$85:$J$85</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$B$87:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41.388133333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5948666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8250666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.525666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59353333333333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4195333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9088000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5C8-3344-8821-12B8CF6A236B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="418850576"/>
+        <c:axId val="418852208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="418850576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418852208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418852208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418850576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Colums</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> ~ total time</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cols</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$31:$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$34:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-081F-D44B-82F4-1438924772F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="435335696"/>
+        <c:axId val="436006400"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$31:$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.417866666666701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9639666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.209933333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45463333333333344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6998333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5410666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6751999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-081F-D44B-82F4-1438924772F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Mongo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$31:$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$33:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41.388133333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5948666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8250666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.525666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59353333333333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4195333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9088000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-081F-D44B-82F4-1438924772F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="430946640"/>
+        <c:axId val="418542656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435335696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436006400"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436006400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435335696"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418542656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430946640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="430946640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418542656"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>dataframe size ~ total time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>size mb df</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B754FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$37:$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.590000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-018F-634C-94B3-5EECFDF86759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="447994224"/>
+        <c:axId val="448442176"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$37:$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.417866666666701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9639666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.209933333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45463333333333344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6998333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5410666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6751999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-018F-634C-94B3-5EECFDF86759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Mongo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$37:$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41.3881333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5948666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8250666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.525666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59353333333333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4195333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9088000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-018F-634C-94B3-5EECFDF86759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="449343152"/>
+        <c:axId val="449414992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447994224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448442176"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448442176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447994224"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449414992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449343152"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="449343152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="449414992"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -747,7 +2665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -1278,7 +3196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -1809,7 +3727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2340,7 +4258,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2871,7 +4789,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -3402,7 +5320,1200 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Rows ~ total time Redis seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1078214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C5A-724B-B1C9-9597EFA4E248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="428168832"/>
+        <c:axId val="428655888"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.417866666666701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9639666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.209933333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45463333333333344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6998333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5410666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6751999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C5A-724B-B1C9-9597EFA4E248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="416222224"/>
+        <c:axId val="823066448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="428168832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428655888"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428655888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428168832"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="823066448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416222224"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="416222224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="823066448"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Rows ~ total time Mongo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$26:$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1078214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9069-8F4D-A171-BACC8AA7BF67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="448522592"/>
+        <c:axId val="448737152"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad10!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totaal Mongo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad10!$B$26:$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blackjack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>covid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fifa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>spotify</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>true</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad10!$B$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41.388133333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5948666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8250666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.525666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59353333333333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4195333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9088000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9069-8F4D-A171-BACC8AA7BF67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="415172336"/>
+        <c:axId val="448522192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448522592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448737152"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448737152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448522592"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="448522192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415172336"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="415172336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448522192"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3642,8 +6753,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3751,6 +6982,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3761,6 +6997,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3792,6 +7033,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3847,23 +7091,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4033,17 +7276,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4112,20 +7344,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4158,7 +7389,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4674,7 +7905,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5190,7 +8421,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5706,7 +8937,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6222,7 +9453,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6738,7 +9969,2628 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1289050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6696BF-C9B6-CB4E-ABE2-67701235AC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6959,6 +12811,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E21BA44-9422-FB48-8736-2F952C3D72E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FF7967-A404-D74C-ADA2-4C849052D9E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B40D58-FB98-2E4E-9FBD-5D5B25056DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE17A89-852E-C74B-BE47-7E3C6B30C05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -7256,10 +13257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB521E26-406F-EC42-8CB7-C1F88D21CCB6}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7267,7 +13268,7 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -7298,8 +13299,11 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7330,8 +13334,11 @@
       <c r="J2" s="5">
         <v>603.1</v>
       </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -7363,7 +13370,7 @@
         <v>616.79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7395,7 +13402,7 @@
         <v>583.75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -7436,7 +13443,7 @@
         <v>601.21333333333325</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7447,7 +13454,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -7478,8 +13485,11 @@
       <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L7" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7510,8 +13520,11 @@
       <c r="J8" s="5">
         <v>10.84</v>
       </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7542,8 +13555,11 @@
       <c r="J9" s="5">
         <v>10.98</v>
       </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7574,8 +13590,11 @@
       <c r="J10" s="5">
         <v>10.35</v>
       </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7615,8 +13634,11 @@
         <f t="shared" ref="J11" si="8">SUM(J8:J10)/3</f>
         <v>10.723333333333334</v>
       </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -7627,7 +13649,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -7658,145 +13680,151 @@
       <c r="J13" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L13" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>3.492</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>0.745</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>5.9320000000000004</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>1.119</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>1.056</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>4.1529999999999996</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>0.16300000000000001</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>6.4539999999999997</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="6">
         <v>1.2110000000000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <v>1.071</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <v>1.2170000000000001</v>
       </c>
+      <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>3.3570000000000002</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>0.185</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>0.40899999999999997</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>5.9610000000000003</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <v>1.2030000000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <v>1.0649999999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>1.1719999999999999</v>
       </c>
+      <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <f>SUM(B14:B16)/3</f>
         <v>3.6673333333333331</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <f t="shared" ref="C17" si="9">SUM(C14:C16)/3</f>
         <v>0.17200000000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <f t="shared" ref="D17" si="10">SUM(D14:D16)/3</f>
         <v>0.7626666666666666</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <f t="shared" ref="E17" si="11">SUM(E14:E16)/3</f>
         <v>0.41699999999999998</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <f t="shared" ref="F17" si="12">SUM(F14:F16)/3</f>
         <v>6.1156666666666668</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f t="shared" ref="G17" si="13">SUM(G14:G16)/3</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f t="shared" ref="H17" si="14">SUM(H14:H16)/3</f>
         <v>1.1776666666666669</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <f t="shared" ref="I17" si="15">SUM(I14:I16)/3</f>
         <v>1.0639999999999998</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <f t="shared" ref="J17" si="16">SUM(J14:J16)/3</f>
         <v>1.2013333333333334</v>
       </c>
+      <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7806,8 +13834,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -7838,177 +13867,187 @@
       <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L19" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>0.60719999999999996</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>1.37E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>9.06E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>1.0222</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="6">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <v>0.1084</v>
       </c>
+      <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>0.60699999999999998</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="6">
         <v>0.107</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="6">
         <v>0.106</v>
       </c>
+      <c r="L21" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>0.66800000000000004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>0.05</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <v>0.112</v>
       </c>
+      <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <f>SUM(B20:B22)/3</f>
         <v>0.62740000000000007</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <f t="shared" ref="C23" si="17">SUM(C20:C22)/3</f>
         <v>1.4233333333333334E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <f t="shared" ref="D23" si="18">SUM(D20:D22)/3</f>
         <v>9.3533333333333316E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <f t="shared" ref="E23" si="19">SUM(E20:E22)/3</f>
         <v>4.5766666666666657E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <f t="shared" ref="F23" si="20">SUM(F20:F22)/3</f>
         <v>0.97006666666666652</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <f t="shared" ref="G23" si="21">SUM(G20:G22)/3</f>
         <v>6.3666666666666663E-3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <f t="shared" ref="H23" si="22">SUM(H20:H22)/3</f>
         <v>0.10096666666666666</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <f t="shared" ref="I23" si="23">SUM(I20:I22)/3</f>
         <v>7.1933333333333335E-2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <f t="shared" ref="J23" si="24">SUM(J20:J22)/3</f>
         <v>0.10879999999999999</v>
       </c>
+      <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>0.3841</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>6.83E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>3.85E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>0.56769999999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>0.98129999999999995</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>0.48599999999999999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>6.3579999999999998E-2</v>
       </c>
+      <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8018,8 +14057,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
+      <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -8050,177 +14090,189 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L26" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>0.98740000000000006</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>0.03</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="6">
         <v>0.2044</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>1.5456000000000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="6">
         <v>0.1996</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="6">
         <v>0.16539999999999999</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="6">
         <v>0.2152</v>
       </c>
+      <c r="L27" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>1.0489999999999999</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>0.20200000000000001</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>1.6040000000000001</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6">
         <v>0.02</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="6">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="6">
         <v>0.17399999999999999</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="6">
         <v>0.22900000000000001</v>
       </c>
+      <c r="L28" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>1.0169999999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="6">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>1.579</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="6">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="6">
         <v>0.17899999999999999</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="6">
         <v>0.223</v>
       </c>
+      <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <f>SUM(B27:B29)/3</f>
         <v>1.0178</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <f t="shared" ref="C30" si="25">SUM(C27:C29)/3</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <f t="shared" ref="D30" si="26">SUM(D27:D29)/3</f>
         <v>0.2031333333333333</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <f t="shared" ref="E30" si="27">SUM(E27:E29)/3</f>
         <v>9.4866666666666655E-2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <f t="shared" ref="F30" si="28">SUM(F27:F29)/3</f>
         <v>1.5762</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="6">
         <f t="shared" ref="G30" si="29">SUM(G27:G29)/3</f>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <f t="shared" ref="H30" si="30">SUM(H27:H29)/3</f>
         <v>0.20153333333333334</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="6">
         <f t="shared" ref="I30" si="31">SUM(I27:I29)/3</f>
         <v>0.17279999999999998</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <f t="shared" ref="J30" si="32">SUM(J27:J29)/3</f>
         <v>0.22240000000000001</v>
       </c>
+      <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>0.86980000000000002</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>0.25900000000000001</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <v>1.345</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <v>1.1339999999999999E-2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>0.20710000000000001</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <v>0.10009999999999999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <v>0.15390000000000001</v>
       </c>
+      <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8230,8 +14282,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+      <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -8262,145 +14315,154 @@
       <c r="J33" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L33" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>22.751999999999999</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="6">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="6">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <v>2.5019999999999998</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <v>22.702000000000002</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="6">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="6">
         <v>4.2439999999999998</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="6">
         <v>0.25700000000000001</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="6">
         <v>2.2170000000000001</v>
       </c>
+      <c r="L34" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>24.692</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6">
         <v>0.66</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="6">
         <v>0.25</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <v>2.3540000000000001</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="6">
         <v>24.606999999999999</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="6">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="6">
         <v>4.2149999999999999</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="6">
         <v>0.22</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="6">
         <v>2.1269999999999998</v>
       </c>
+      <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>24.872</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="6">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <v>2.363</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6">
         <v>23.335000000000001</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="6">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="6">
         <v>4.2</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="6">
         <v>0.22</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="6">
         <v>2.0840000000000001</v>
       </c>
+      <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <f>SUM(B34:B36)/3</f>
         <v>24.105333333333334</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <f t="shared" ref="C37" si="33">SUM(C34:C36)/3</f>
         <v>0.66166666666666663</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
         <f t="shared" ref="D37" si="34">SUM(D34:D36)/3</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="6">
         <f t="shared" ref="E37" si="35">SUM(E34:E36)/3</f>
         <v>2.406333333333333</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <f t="shared" ref="F37" si="36">SUM(F34:F36)/3</f>
         <v>23.548000000000002</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="6">
         <f t="shared" ref="G37" si="37">SUM(G34:G36)/3</f>
         <v>0.32966666666666672</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <f t="shared" ref="H37" si="38">SUM(H34:H36)/3</f>
         <v>4.219666666666666</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="6">
         <f t="shared" ref="I37" si="39">SUM(I34:I36)/3</f>
         <v>0.23233333333333331</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="6">
         <f t="shared" ref="J37" si="40">SUM(J34:J36)/3</f>
         <v>2.1426666666666665</v>
       </c>
+      <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8410,8 +14472,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
+      <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -8442,177 +14505,189 @@
       <c r="J39" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L39" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>16.107399999999998</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <v>0.87460000000000004</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="6">
         <v>1.8673999999999999</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="6">
         <v>1.1442000000000001</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6">
         <v>23.212</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="6">
         <v>0.30259999999999998</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="6">
         <v>3.9962</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="6">
         <v>1.9785999999999999</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="6">
         <v>3.5613999999999999</v>
       </c>
+      <c r="L40" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>16.067</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <v>0.88100000000000001</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="6">
         <v>2.319</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <v>1.1739999999999999</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6">
         <v>22.925000000000001</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="6">
         <v>0.317</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="6">
         <v>3.9820000000000002</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="6">
         <v>2.1059999999999999</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="6">
         <v>3.5129999999999999</v>
       </c>
+      <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>16.27</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="6">
         <v>1.909</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6">
         <v>1.1379999999999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6">
         <v>25.120999999999999</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="6">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="6">
         <v>4.2240000000000002</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="6">
         <v>2.0179999999999998</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="6">
         <v>3.73</v>
       </c>
+      <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <f>SUM(B40:B42)/3</f>
         <v>16.148133333333334</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <f t="shared" ref="C43" si="41">SUM(C40:C42)/3</f>
         <v>0.88153333333333339</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <f t="shared" ref="D43" si="42">SUM(D40:D42)/3</f>
         <v>2.0318000000000001</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <f t="shared" ref="E43" si="43">SUM(E40:E42)/3</f>
         <v>1.1520666666666666</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6">
         <f t="shared" ref="F43" si="44">SUM(F40:F42)/3</f>
         <v>23.752666666666666</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <f t="shared" ref="G43" si="45">SUM(G40:G42)/3</f>
         <v>0.31619999999999998</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <f t="shared" ref="H43" si="46">SUM(H40:H42)/3</f>
         <v>4.0674000000000001</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <f t="shared" ref="I43" si="47">SUM(I40:I42)/3</f>
         <v>2.0341999999999998</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <f t="shared" ref="J43" si="48">SUM(J40:J42)/3</f>
         <v>3.6014666666666666</v>
       </c>
+      <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>23.889479999999999</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>1.389</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>0.94642000000000004</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="6">
         <v>1.2973699999999999</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <v>24.737385</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="6">
         <v>0.36780000000000002</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>4.0186900000000003</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="6">
         <v>0.72148999999999996</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="6">
         <v>3.2667999999999999</v>
       </c>
+      <c r="L44" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8622,8 +14697,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
+      <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
@@ -8654,177 +14730,187 @@
       <c r="J46" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L46" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>26.216999999999999</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="6">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <v>2.637</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="6">
         <v>21.512</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="6">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="6">
         <v>3.8719999999999999</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="6">
         <v>0.39</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="6">
         <v>2.3140000000000001</v>
       </c>
+      <c r="L47" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>24.933</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>0.74099999999999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="6">
         <v>0.433</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="6">
         <v>2.6680000000000001</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="6">
         <v>26.423999999999999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="6">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="6">
         <v>3.8570000000000002</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="6">
         <v>0.379</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="6">
         <v>2.3039999999999998</v>
       </c>
+      <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>24.57</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="6">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="6">
         <v>2.714</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="6">
         <v>26.382999999999999</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="6">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="6">
         <v>3.9060000000000001</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="6">
         <v>0.38700000000000001</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="6">
         <v>2.3039999999999998</v>
       </c>
+      <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="6">
         <f>SUM(B47:B49)/3</f>
         <v>25.24</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
         <f t="shared" ref="C50" si="49">SUM(C47:C49)/3</f>
         <v>0.71333333333333326</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
         <f t="shared" ref="D50" si="50">SUM(D47:D49)/3</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="6">
         <f t="shared" ref="E50" si="51">SUM(E47:E49)/3</f>
         <v>2.673</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="6">
         <f t="shared" ref="F50" si="52">SUM(F47:F49)/3</f>
         <v>24.773</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="6">
         <f t="shared" ref="G50" si="53">SUM(G47:G49)/3</f>
         <v>0.27733333333333332</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="6">
         <f t="shared" ref="H50" si="54">SUM(H47:H49)/3</f>
         <v>3.8783333333333334</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="6">
         <f t="shared" ref="I50" si="55">SUM(I47:I49)/3</f>
         <v>0.38533333333333336</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="6">
         <f t="shared" ref="J50" si="56">SUM(J47:J49)/3</f>
         <v>2.3073333333333337</v>
       </c>
+      <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="6">
         <v>17.6935</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <v>0.65439999999999998</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
         <v>0.20646999999999999</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="6">
         <v>1.0203599999999999</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="6">
         <v>18.771599999999999</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="6">
         <v>0.16516</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>2.7987000000000002</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="6">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="6">
         <v>1.8709899999999999</v>
       </c>
+      <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -8834,8 +14920,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
+      <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -8866,145 +14953,157 @@
       <c r="J53" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L53" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>3.7389999999999999</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>1.2589999999999999</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="7">
         <v>8.7789999999999999</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>0.65</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>5.0049999999999999</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="7">
         <v>3.6139999999999999</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="7">
         <v>3.4380000000000002</v>
       </c>
+      <c r="L54" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>0.19</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="6">
         <v>3.7970000000000002</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="6">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <v>1.363</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="6">
         <v>9.7360000000000007</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="6">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="6">
         <v>5.2519999999999998</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="6">
         <v>3.42</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="6">
         <v>3.5259999999999998</v>
       </c>
+      <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="7">
         <v>0.188</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="7">
         <v>3.5790000000000002</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <v>0.151</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>1.29</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="7">
         <v>8.9329999999999998</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>0.65300000000000002</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>5.1100000000000003</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="7">
         <v>3.5289999999999999</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="7">
         <v>3.4729999999999999</v>
       </c>
+      <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <f>SUM(B54:B56)/3</f>
         <v>0.20099999999999998</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <f t="shared" ref="C57" si="57">SUM(C54:C56)/3</f>
         <v>3.7050000000000001</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
         <f t="shared" ref="D57" si="58">SUM(D54:D56)/3</f>
         <v>0.156</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="6">
         <f t="shared" ref="E57" si="59">SUM(E54:E56)/3</f>
         <v>1.304</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="6">
         <f t="shared" ref="F57" si="60">SUM(F54:F56)/3</f>
         <v>9.1493333333333329</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="6">
         <f t="shared" ref="G57" si="61">SUM(G54:G56)/3</f>
         <v>0.65600000000000003</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="6">
         <f t="shared" ref="H57" si="62">SUM(H54:H56)/3</f>
         <v>5.1223333333333336</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="6">
         <f t="shared" ref="I57" si="63">SUM(I54:I56)/3</f>
         <v>3.5209999999999995</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="6">
         <f t="shared" ref="J57" si="64">SUM(J54:J56)/3</f>
         <v>3.4790000000000005</v>
       </c>
+      <c r="L57" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
         <v>0</v>
@@ -9033,8 +15132,11 @@
       <c r="J59" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L59" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -9065,8 +15167,9 @@
       <c r="J60">
         <v>150930</v>
       </c>
+      <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -9097,8 +15200,9 @@
       <c r="J61">
         <v>11</v>
       </c>
+      <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -9129,8 +15233,9 @@
       <c r="J62">
         <v>38.590000000000003</v>
       </c>
+      <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -9160,10 +15265,602 @@
       </c>
       <c r="J63">
         <v>65.38</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="7">
+        <f>B63/B30</f>
+        <v>254.3623501670269</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" ref="C67:J67" si="65">C63/C30</f>
+        <v>261.81818181818181</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="65"/>
+        <v>298.86773875943555</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="65"/>
+        <v>272.80393534785668</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" si="65"/>
+        <v>251.79545742926024</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="65"/>
+        <v>243.010752688172</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="65"/>
+        <v>308.58418789282166</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="65"/>
+        <v>300.05787037037044</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="65"/>
+        <v>293.97482014388487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="7">
+        <f>B62/B50</f>
+        <v>2.8565768621236134</v>
+      </c>
+      <c r="C68" s="7">
+        <f t="shared" ref="C68:J68" si="66">C62/C50</f>
+        <v>3.2383177570093462</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="66"/>
+        <v>110.70588235294117</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="66"/>
+        <v>3.6475869809203143</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" si="66"/>
+        <v>3.0056916804585634</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="66"/>
+        <v>13.26923076923077</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="66"/>
+        <v>12.420283626987537</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="66"/>
+        <v>137.77681660899654</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="66"/>
+        <v>16.724934989887316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="7">
+        <f>B17</f>
+        <v>3.6673333333333331</v>
+      </c>
+      <c r="C73" s="7">
+        <f t="shared" ref="C73:J73" si="67">C17</f>
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="67"/>
+        <v>0.7626666666666666</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="67"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="67"/>
+        <v>6.1156666666666668</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="67"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="67"/>
+        <v>1.1776666666666669</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="67"/>
+        <v>1.0639999999999998</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" si="67"/>
+        <v>1.2013333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="7">
+        <f>B23</f>
+        <v>0.62740000000000007</v>
+      </c>
+      <c r="C74" s="7">
+        <f t="shared" ref="C74:J74" si="68">C23</f>
+        <v>1.4233333333333334E-2</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="68"/>
+        <v>9.3533333333333316E-2</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" si="68"/>
+        <v>4.5766666666666657E-2</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="68"/>
+        <v>0.97006666666666652</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="68"/>
+        <v>6.3666666666666663E-3</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="68"/>
+        <v>0.10096666666666666</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="68"/>
+        <v>7.1933333333333335E-2</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="68"/>
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="7">
+        <f>B30</f>
+        <v>1.0178</v>
+      </c>
+      <c r="C75" s="7">
+        <f t="shared" ref="C75:J75" si="69">C30</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="69"/>
+        <v>0.2031333333333333</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="69"/>
+        <v>9.4866666666666655E-2</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="69"/>
+        <v>1.5762</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="69"/>
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="69"/>
+        <v>0.20153333333333334</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="69"/>
+        <v>0.17279999999999998</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="69"/>
+        <v>0.22240000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="7">
+        <f>B37</f>
+        <v>24.105333333333334</v>
+      </c>
+      <c r="C76" s="7">
+        <f t="shared" ref="C76:J76" si="70">C37</f>
+        <v>0.66166666666666663</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="70"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="70"/>
+        <v>2.406333333333333</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="70"/>
+        <v>23.548000000000002</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="70"/>
+        <v>0.32966666666666672</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="70"/>
+        <v>4.219666666666666</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="70"/>
+        <v>0.23233333333333331</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="70"/>
+        <v>2.1426666666666665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="11">
+        <f>SUM(B73:B76)</f>
+        <v>29.417866666666669</v>
+      </c>
+      <c r="C77" s="11">
+        <f t="shared" ref="C77:J77" si="71">SUM(C73:C76)</f>
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" si="71"/>
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="71"/>
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="71"/>
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="71"/>
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="71"/>
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="71"/>
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="71"/>
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="7">
+        <f>B43</f>
+        <v>16.148133333333334</v>
+      </c>
+      <c r="C79" s="7">
+        <f t="shared" ref="C79:J79" si="72">C43</f>
+        <v>0.88153333333333339</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="72"/>
+        <v>2.0318000000000001</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="72"/>
+        <v>1.1520666666666666</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="72"/>
+        <v>23.752666666666666</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" si="72"/>
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="72"/>
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="72"/>
+        <v>2.0341999999999998</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" si="72"/>
+        <v>3.6014666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="7">
+        <f>B50</f>
+        <v>25.24</v>
+      </c>
+      <c r="C80" s="7">
+        <f t="shared" ref="C80:J80" si="73">C50</f>
+        <v>0.71333333333333326</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="73"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="73"/>
+        <v>2.673</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" si="73"/>
+        <v>24.773</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="73"/>
+        <v>0.27733333333333332</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="73"/>
+        <v>3.8783333333333334</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="73"/>
+        <v>0.38533333333333336</v>
+      </c>
+      <c r="J80" s="7">
+        <f t="shared" si="73"/>
+        <v>2.3073333333333337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="11">
+        <f>B79+B80</f>
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C81" s="11">
+        <f t="shared" ref="C81:J81" si="74">C79+C80</f>
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D81" s="11">
+        <f t="shared" si="74"/>
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="74"/>
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="74"/>
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G81" s="11">
+        <f t="shared" si="74"/>
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="74"/>
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="74"/>
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J81" s="11">
+        <f t="shared" si="74"/>
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>A77</f>
+        <v>totaal Redis</v>
+      </c>
+      <c r="B86" s="7">
+        <f t="shared" ref="B86:J86" si="75">B77</f>
+        <v>29.417866666666669</v>
+      </c>
+      <c r="C86" s="7">
+        <f t="shared" si="75"/>
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="75"/>
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="75"/>
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F86" s="7">
+        <f t="shared" si="75"/>
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="75"/>
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="75"/>
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I86" s="7">
+        <f t="shared" si="75"/>
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J86" s="7">
+        <f t="shared" si="75"/>
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>A81</f>
+        <v>totaal Mongo</v>
+      </c>
+      <c r="B87" s="7">
+        <f t="shared" ref="B87:J87" si="76">B81</f>
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" si="76"/>
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="76"/>
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="76"/>
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" si="76"/>
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="76"/>
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="76"/>
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I87" s="7">
+        <f t="shared" si="76"/>
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J87" s="7">
+        <f t="shared" si="76"/>
+        <v>5.9088000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9171,7 +15868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B881828-AC3E-054D-8EDC-C175A69421A4}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57:J57"/>
     </sheetView>
   </sheetViews>
@@ -9766,4 +16463,895 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8CD09D-40BD-9B4E-A8BD-A7C28390C062}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.6673333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.7626666666666666</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6.1156666666666668</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.1776666666666669</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.0639999999999998</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.2013333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.62740000000000007</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.4233333333333334E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9.3533333333333316E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.5766666666666657E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.97006666666666652</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6.3666666666666663E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.10096666666666666</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7.1933333333333335E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.0178</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.2031333333333333</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9.4866666666666655E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.5762</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.20153333333333334</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.17279999999999998</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.22240000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>24.105333333333334</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.66166666666666663</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.406333333333333</v>
+      </c>
+      <c r="F5" s="6">
+        <v>23.548000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.32966666666666672</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4.219666666666666</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.23233333333333331</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.1426666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6">
+        <v>29.417866666666669</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F6" s="6">
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6">
+        <v>16.148133333333334</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.88153333333333339</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0318000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.1520666666666666</v>
+      </c>
+      <c r="F8" s="6">
+        <v>23.752666666666666</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.0341999999999998</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3.6014666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6">
+        <v>25.24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.71333333333333326</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.673</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24.773</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.27733333333333332</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3.8783333333333334</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.38533333333333336</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.3073333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F10" s="6">
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>900000</v>
+      </c>
+      <c r="C13">
+        <v>95420</v>
+      </c>
+      <c r="D13">
+        <v>23481</v>
+      </c>
+      <c r="E13">
+        <v>18207</v>
+      </c>
+      <c r="F13">
+        <v>1078214</v>
+      </c>
+      <c r="G13">
+        <v>16744</v>
+      </c>
+      <c r="H13">
+        <v>168592</v>
+      </c>
+      <c r="I13">
+        <v>21417</v>
+      </c>
+      <c r="J13">
+        <v>150930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6">
+        <f>29.4178666666667*1</f>
+        <v>29.417866666666701</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F14" s="6">
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F15" s="6">
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>89</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C19">
+        <v>2.31</v>
+      </c>
+      <c r="D19">
+        <v>47.05</v>
+      </c>
+      <c r="E19">
+        <v>9.75</v>
+      </c>
+      <c r="F19">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="G19">
+        <v>3.68</v>
+      </c>
+      <c r="H19">
+        <v>48.17</v>
+      </c>
+      <c r="I19">
+        <v>53.09</v>
+      </c>
+      <c r="J19">
+        <v>38.590000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>258.89</v>
+      </c>
+      <c r="C22">
+        <v>8.64</v>
+      </c>
+      <c r="D22">
+        <v>60.71</v>
+      </c>
+      <c r="E22">
+        <v>25.88</v>
+      </c>
+      <c r="F22">
+        <v>396.88</v>
+      </c>
+      <c r="G22">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H22">
+        <v>62.19</v>
+      </c>
+      <c r="I22">
+        <v>51.85</v>
+      </c>
+      <c r="J22">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>900000</v>
+      </c>
+      <c r="C27">
+        <v>95420</v>
+      </c>
+      <c r="D27">
+        <v>23481</v>
+      </c>
+      <c r="E27">
+        <v>18207</v>
+      </c>
+      <c r="F27">
+        <v>1078214</v>
+      </c>
+      <c r="G27">
+        <v>16744</v>
+      </c>
+      <c r="H27">
+        <v>168592</v>
+      </c>
+      <c r="I27">
+        <v>21417</v>
+      </c>
+      <c r="J27">
+        <v>150930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F28" s="6">
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H28" s="6">
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J28" s="6">
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6">
+        <f>29.4178666666667*1</f>
+        <v>29.417866666666701</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F32" s="6">
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41.388133333333329</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F33" s="6">
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J33" s="6">
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>89</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="6">
+        <f>29.4178666666667*1</f>
+        <v>29.417866666666701</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1.3183333333333334</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2.9639666666666664</v>
+      </c>
+      <c r="F38" s="6">
+        <v>32.209933333333339</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.45463333333333344</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5.6998333333333324</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.5410666666666666</v>
+      </c>
+      <c r="J38" s="6">
+        <v>3.6751999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="6">
+        <f>41.3881333333333*1</f>
+        <v>41.3881333333333</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.5948666666666667</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2.4567999999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.8250666666666664</v>
+      </c>
+      <c r="F39" s="6">
+        <v>48.525666666666666</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.59353333333333325</v>
+      </c>
+      <c r="H39" s="6">
+        <v>7.9457333333333331</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2.4195333333333333</v>
+      </c>
+      <c r="J39" s="6">
+        <v>5.9088000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C40">
+        <v>2.31</v>
+      </c>
+      <c r="D40">
+        <v>47.05</v>
+      </c>
+      <c r="E40">
+        <v>9.75</v>
+      </c>
+      <c r="F40">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="G40">
+        <v>3.68</v>
+      </c>
+      <c r="H40">
+        <v>48.17</v>
+      </c>
+      <c r="I40">
+        <v>53.09</v>
+      </c>
+      <c r="J40">
+        <v>38.590000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>